--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>Robo4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>Robo4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H2">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I2">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J2">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.3542805</v>
+        <v>43.1625365</v>
       </c>
       <c r="N2">
-        <v>128.708561</v>
+        <v>86.325073</v>
       </c>
       <c r="O2">
-        <v>0.6389470558360469</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P2">
-        <v>0.5413393761575827</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q2">
-        <v>8.107255725969249</v>
+        <v>9.765718114539251</v>
       </c>
       <c r="R2">
-        <v>32.429022903877</v>
+        <v>39.062872458157</v>
       </c>
       <c r="S2">
-        <v>0.04781219991662874</v>
+        <v>0.1197050493556374</v>
       </c>
       <c r="T2">
-        <v>0.03081942112144405</v>
+        <v>0.09728529709266355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H3">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I3">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J3">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03297533333333334</v>
+        <v>0.030416</v>
       </c>
       <c r="N3">
-        <v>0.098926</v>
+        <v>0.091248</v>
       </c>
       <c r="O3">
-        <v>0.0003273984571787046</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P3">
-        <v>0.00041607596813832</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q3">
-        <v>0.004154183030333334</v>
+        <v>0.006881756871999999</v>
       </c>
       <c r="R3">
-        <v>0.024925098182</v>
+        <v>0.041290541232</v>
       </c>
       <c r="S3">
-        <v>2.449911983167623E-05</v>
+        <v>8.435437479910543E-05</v>
       </c>
       <c r="T3">
-        <v>2.368795074835755E-05</v>
+        <v>0.0001028332613064962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H4">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I4">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J4">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.044061</v>
+        <v>0.100667</v>
       </c>
       <c r="N4">
-        <v>0.08812200000000001</v>
+        <v>0.201334</v>
       </c>
       <c r="O4">
-        <v>0.0004374634602152387</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P4">
-        <v>0.0003706350854606983</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q4">
-        <v>0.0055507386885</v>
+        <v>0.0227763617515</v>
       </c>
       <c r="R4">
-        <v>0.022202954754</v>
+        <v>0.091105447006</v>
       </c>
       <c r="S4">
-        <v>3.273524813204273E-05</v>
+        <v>0.0002791853579662529</v>
       </c>
       <c r="T4">
-        <v>2.110091983752264E-05</v>
+        <v>0.0002268962808158219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H5">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I5">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J5">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.25707166666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N5">
-        <v>108.771215</v>
+        <v>0.372683</v>
       </c>
       <c r="O5">
-        <v>0.3599814808690655</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P5">
-        <v>0.4574842668934997</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q5">
-        <v>4.567611502959167</v>
+        <v>0.02810706860783333</v>
       </c>
       <c r="R5">
-        <v>27.405669017755</v>
+        <v>0.168642411647</v>
       </c>
       <c r="S5">
-        <v>0.02693729687364312</v>
+        <v>0.0003445274577333751</v>
       </c>
       <c r="T5">
-        <v>0.02604539942744082</v>
+        <v>0.0004200005295840888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8414976666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.524493</v>
+      </c>
+      <c r="I6">
+        <v>0.4478468123711794</v>
+      </c>
+      <c r="J6">
+        <v>0.5469255635385413</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.1259785</v>
-      </c>
-      <c r="H6">
-        <v>0.251957</v>
-      </c>
-      <c r="I6">
-        <v>0.07482967403937345</v>
-      </c>
-      <c r="J6">
-        <v>0.05693179265879337</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03088066666666667</v>
+        <v>43.1625365</v>
       </c>
       <c r="N6">
-        <v>0.092642</v>
+        <v>86.325073</v>
       </c>
       <c r="O6">
-        <v>0.0003066013774937787</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P6">
-        <v>0.0003896458953184223</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q6">
-        <v>0.003890300065666667</v>
+        <v>36.32117375216484</v>
       </c>
       <c r="R6">
-        <v>0.023341800394</v>
+        <v>217.927042512989</v>
       </c>
       <c r="S6">
-        <v>2.294288113788235E-05</v>
+        <v>0.4452133315403101</v>
       </c>
       <c r="T6">
-        <v>2.218323932261832E-05</v>
+        <v>0.5427429101152672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H7">
         <v>2.524493</v>
       </c>
       <c r="I7">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J7">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>64.3542805</v>
+        <v>0.030416</v>
       </c>
       <c r="N7">
-        <v>128.708561</v>
+        <v>0.091248</v>
       </c>
       <c r="O7">
-        <v>0.6389470558360469</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P7">
-        <v>0.5413393761575827</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q7">
-        <v>54.15397688076217</v>
+        <v>0.02559499302933333</v>
       </c>
       <c r="R7">
-        <v>324.923861284573</v>
+        <v>0.230354937264</v>
       </c>
       <c r="S7">
-        <v>0.3193708027008043</v>
+        <v>0.0003137352387093856</v>
       </c>
       <c r="T7">
-        <v>0.308796393373225</v>
+        <v>0.0005736943316827302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
         <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J8">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.03297533333333334</v>
+        <v>0.100667</v>
       </c>
       <c r="N8">
-        <v>0.098926</v>
+        <v>0.201334</v>
       </c>
       <c r="O8">
-        <v>0.0003273984571787046</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P8">
-        <v>0.00041607596813832</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q8">
-        <v>0.02774866605755556</v>
+        <v>0.08471104561033334</v>
       </c>
       <c r="R8">
-        <v>0.249737994518</v>
+        <v>0.5082662736620001</v>
       </c>
       <c r="S8">
-        <v>0.0001636465918687919</v>
+        <v>0.001038360904627753</v>
       </c>
       <c r="T8">
-        <v>0.0002373423474980786</v>
+        <v>0.001265826917576394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
         <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J9">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.044061</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N9">
-        <v>0.08812200000000001</v>
+        <v>0.372683</v>
       </c>
       <c r="O9">
-        <v>0.0004374634602152387</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P9">
-        <v>0.0003706350854606983</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q9">
-        <v>0.037077228691</v>
+        <v>0.1045372916354445</v>
       </c>
       <c r="R9">
-        <v>0.222463372146</v>
+        <v>0.940835624719</v>
       </c>
       <c r="S9">
-        <v>0.0002186613979438421</v>
+        <v>0.00128138468753211</v>
       </c>
       <c r="T9">
-        <v>0.0002114214902677323</v>
+        <v>0.002343132174014937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,60 +1030,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8414976666666666</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H10">
-        <v>2.524493</v>
+        <v>0.04049</v>
       </c>
       <c r="I10">
-        <v>0.4998392273408557</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J10">
-        <v>0.5704303196361888</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.25707166666667</v>
+        <v>43.1625365</v>
       </c>
       <c r="N10">
-        <v>108.771215</v>
+        <v>86.325073</v>
       </c>
       <c r="O10">
-        <v>0.3599814808690655</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P10">
-        <v>0.4574842668934997</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q10">
-        <v>30.51024120766611</v>
+        <v>0.5825503676283333</v>
       </c>
       <c r="R10">
-        <v>274.592170868995</v>
+        <v>3.49530220577</v>
       </c>
       <c r="S10">
-        <v>0.1799328652546107</v>
+        <v>0.00714071609391159</v>
       </c>
       <c r="T10">
-        <v>0.2609628965925866</v>
+        <v>0.008704979744672364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8414976666666666</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H11">
-        <v>2.524493</v>
+        <v>0.04049</v>
       </c>
       <c r="I11">
-        <v>0.4998392273408557</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J11">
-        <v>0.5704303196361888</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03088066666666667</v>
+        <v>0.030416</v>
       </c>
       <c r="N11">
-        <v>0.092642</v>
+        <v>0.091248</v>
       </c>
       <c r="O11">
-        <v>0.0003066013774937787</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P11">
-        <v>0.0003896458953184223</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q11">
-        <v>0.02598600894511111</v>
+        <v>0.0004105146133333333</v>
       </c>
       <c r="R11">
-        <v>0.233874080506</v>
+        <v>0.00369463152</v>
       </c>
       <c r="S11">
-        <v>0.0001532513956281324</v>
+        <v>5.031956838598096E-06</v>
       </c>
       <c r="T11">
-        <v>0.0002222658326114166</v>
+        <v>9.201405387075244E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H12">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I12">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J12">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>64.3542805</v>
+        <v>0.100667</v>
       </c>
       <c r="N12">
-        <v>128.708561</v>
+        <v>0.201334</v>
       </c>
       <c r="O12">
-        <v>0.6389470558360469</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P12">
-        <v>0.5413393761575827</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q12">
-        <v>32.11519925501875</v>
+        <v>0.001358668943333333</v>
       </c>
       <c r="R12">
-        <v>128.460797020075</v>
+        <v>0.00815201366</v>
       </c>
       <c r="S12">
-        <v>0.1893980378865808</v>
+        <v>1.665412937503796E-05</v>
       </c>
       <c r="T12">
-        <v>0.1220846959432969</v>
+        <v>2.030242583071857E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,57 +1219,57 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4990375</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H13">
-        <v>0.998075</v>
+        <v>0.04049</v>
       </c>
       <c r="I13">
-        <v>0.296422115348443</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J13">
-        <v>0.225523398666936</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03297533333333334</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N13">
-        <v>0.098926</v>
+        <v>0.372683</v>
       </c>
       <c r="O13">
-        <v>0.0003273984571787046</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P13">
-        <v>0.00041607596813832</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q13">
-        <v>0.01645592790833333</v>
+        <v>0.001676659407777778</v>
       </c>
       <c r="R13">
-        <v>0.09873556745000001</v>
+        <v>0.01508993467</v>
       </c>
       <c r="S13">
-        <v>9.704814323872826E-05</v>
+        <v>2.055195478782279E-05</v>
       </c>
       <c r="T13">
-        <v>9.383486643818972E-05</v>
+        <v>3.758117836962304E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,60 +1287,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4990375</v>
+        <v>0.794913</v>
       </c>
       <c r="H14">
-        <v>0.998075</v>
+        <v>1.589826</v>
       </c>
       <c r="I14">
-        <v>0.296422115348443</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J14">
-        <v>0.225523398666936</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.044061</v>
+        <v>43.1625365</v>
       </c>
       <c r="N14">
-        <v>0.08812200000000001</v>
+        <v>86.325073</v>
       </c>
       <c r="O14">
-        <v>0.0004374634602152387</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P14">
-        <v>0.0003706350854606983</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q14">
-        <v>0.0219880912875</v>
+        <v>34.3104613768245</v>
       </c>
       <c r="R14">
-        <v>0.08795236515</v>
+        <v>137.241845507298</v>
       </c>
       <c r="S14">
-        <v>0.0001296738442646505</v>
+        <v>0.4205666623136239</v>
       </c>
       <c r="T14">
-        <v>8.358688413830697E-05</v>
+        <v>0.3417980520512098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4990375</v>
+        <v>0.794913</v>
       </c>
       <c r="H15">
-        <v>0.998075</v>
+        <v>1.589826</v>
       </c>
       <c r="I15">
-        <v>0.296422115348443</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J15">
-        <v>0.225523398666936</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>36.25707166666667</v>
+        <v>0.030416</v>
       </c>
       <c r="N15">
-        <v>108.771215</v>
+        <v>0.091248</v>
       </c>
       <c r="O15">
-        <v>0.3599814808690655</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P15">
-        <v>0.4574842668934997</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q15">
-        <v>18.09363840185417</v>
+        <v>0.024178073808</v>
       </c>
       <c r="R15">
-        <v>108.561830411125</v>
+        <v>0.145068442848</v>
       </c>
       <c r="S15">
-        <v>0.1067064720454735</v>
+        <v>0.0002963670960563494</v>
       </c>
       <c r="T15">
-        <v>0.1031734067064737</v>
+        <v>0.000361290035092919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4990375</v>
+        <v>0.794913</v>
       </c>
       <c r="H16">
-        <v>0.998075</v>
+        <v>1.589826</v>
       </c>
       <c r="I16">
-        <v>0.296422115348443</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J16">
-        <v>0.225523398666936</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.03088066666666667</v>
+        <v>0.100667</v>
       </c>
       <c r="N16">
-        <v>0.092642</v>
+        <v>0.201334</v>
       </c>
       <c r="O16">
-        <v>0.0003066013774937787</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P16">
-        <v>0.0003896458953184223</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q16">
-        <v>0.01541061069166667</v>
+        <v>0.08002150697100001</v>
       </c>
       <c r="R16">
-        <v>0.09246366415</v>
+        <v>0.320086027884</v>
       </c>
       <c r="S16">
-        <v>9.08834288854524E-05</v>
+        <v>0.0009808780398048568</v>
       </c>
       <c r="T16">
-        <v>8.787426658883177E-05</v>
+        <v>0.0007971678056000982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.794913</v>
+      </c>
+      <c r="H17">
+        <v>1.589826</v>
+      </c>
+      <c r="I17">
+        <v>0.4230543556616057</v>
+      </c>
+      <c r="J17">
+        <v>0.3444321220055769</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.206538</v>
-      </c>
-      <c r="H17">
-        <v>0.619614</v>
-      </c>
-      <c r="I17">
-        <v>0.1226810226883485</v>
-      </c>
-      <c r="J17">
-        <v>0.1400069685560854</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>64.3542805</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N17">
-        <v>128.708561</v>
+        <v>0.372683</v>
       </c>
       <c r="O17">
-        <v>0.6389470558360469</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P17">
-        <v>0.5413393761575827</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q17">
-        <v>13.291604385909</v>
+        <v>0.09875018719299999</v>
       </c>
       <c r="R17">
-        <v>79.74962631545399</v>
+        <v>0.592501123158</v>
       </c>
       <c r="S17">
-        <v>0.07838667825367557</v>
+        <v>0.001210448212120468</v>
       </c>
       <c r="T17">
-        <v>0.07579128501586553</v>
+        <v>0.001475612113674101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,60 +1526,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.206538</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H18">
-        <v>0.619614</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I18">
-        <v>0.1226810226883485</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J18">
-        <v>0.1400069685560854</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03297533333333334</v>
+        <v>43.1625365</v>
       </c>
       <c r="N18">
-        <v>0.098926</v>
+        <v>86.325073</v>
       </c>
       <c r="O18">
-        <v>0.0003273984571787046</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P18">
-        <v>0.00041607596813832</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q18">
-        <v>0.006810659396</v>
+        <v>0.1218766155638333</v>
       </c>
       <c r="R18">
-        <v>0.061295934564</v>
+        <v>0.731259693383</v>
       </c>
       <c r="S18">
-        <v>4.016557755327095E-05</v>
+        <v>0.001493924574747471</v>
       </c>
       <c r="T18">
-        <v>5.825353498808454E-05</v>
+        <v>0.001821187538086431</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.206538</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H19">
-        <v>0.619614</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I19">
-        <v>0.1226810226883485</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J19">
-        <v>0.1400069685560854</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.044061</v>
+        <v>0.030416</v>
       </c>
       <c r="N19">
-        <v>0.08812200000000001</v>
+        <v>0.091248</v>
       </c>
       <c r="O19">
-        <v>0.0004374634602152387</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P19">
-        <v>0.0003706350854606983</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q19">
-        <v>0.009100270818</v>
+        <v>8.588464533333333E-05</v>
       </c>
       <c r="R19">
-        <v>0.054601624908</v>
+        <v>0.0007729618079999999</v>
       </c>
       <c r="S19">
-        <v>5.366846468798915E-05</v>
+        <v>1.052746514689169E-06</v>
       </c>
       <c r="T19">
-        <v>5.1891494755878E-05</v>
+        <v>1.92504581461878E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.206538</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H20">
-        <v>0.619614</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I20">
-        <v>0.1226810226883485</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J20">
-        <v>0.1400069685560854</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>36.25707166666667</v>
+        <v>0.100667</v>
       </c>
       <c r="N20">
-        <v>108.771215</v>
+        <v>0.201334</v>
       </c>
       <c r="O20">
-        <v>0.3599814808690655</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P20">
-        <v>0.4574842668934997</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q20">
-        <v>7.488463067890001</v>
+        <v>0.0002842500523333334</v>
       </c>
       <c r="R20">
-        <v>67.39616761101</v>
+        <v>0.001705500314</v>
       </c>
       <c r="S20">
-        <v>0.04416289622188312</v>
+        <v>3.484246232055978E-06</v>
       </c>
       <c r="T20">
-        <v>0.06405098536986198</v>
+        <v>4.247514181576117E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,365 +1712,55 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.002823666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.008470999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.001502761286165682</v>
+      </c>
+      <c r="J21">
+        <v>0.001835222537252027</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.206538</v>
-      </c>
-      <c r="H21">
-        <v>0.619614</v>
-      </c>
-      <c r="I21">
-        <v>0.1226810226883485</v>
-      </c>
-      <c r="J21">
-        <v>0.1400069685560854</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03088066666666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N21">
-        <v>0.092642</v>
+        <v>0.372683</v>
       </c>
       <c r="O21">
-        <v>0.0003066013774937787</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P21">
-        <v>0.0003896458953184223</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q21">
-        <v>0.006378031132</v>
+        <v>0.0003507775214444445</v>
       </c>
       <c r="R21">
-        <v>0.057402280188</v>
+        <v>0.003156997693</v>
       </c>
       <c r="S21">
-        <v>3.761417054859317E-05</v>
+        <v>4.299718671465717E-06</v>
       </c>
       <c r="T21">
-        <v>5.455314061385407E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.010485</v>
-      </c>
-      <c r="H22">
-        <v>0.031455</v>
-      </c>
-      <c r="I22">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J22">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>64.3542805</v>
-      </c>
-      <c r="N22">
-        <v>128.708561</v>
-      </c>
-      <c r="O22">
-        <v>0.6389470558360469</v>
-      </c>
-      <c r="P22">
-        <v>0.5413393761575827</v>
-      </c>
-      <c r="Q22">
-        <v>0.6747546310425001</v>
-      </c>
-      <c r="R22">
-        <v>4.048527786255001</v>
-      </c>
-      <c r="S22">
-        <v>0.003979337078357437</v>
-      </c>
-      <c r="T22">
-        <v>0.003847580703751127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.010485</v>
-      </c>
-      <c r="H23">
-        <v>0.031455</v>
-      </c>
-      <c r="I23">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J23">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.03297533333333334</v>
-      </c>
-      <c r="N23">
-        <v>0.098926</v>
-      </c>
-      <c r="O23">
-        <v>0.0003273984571787046</v>
-      </c>
-      <c r="P23">
-        <v>0.00041607596813832</v>
-      </c>
-      <c r="Q23">
-        <v>0.0003457463700000001</v>
-      </c>
-      <c r="R23">
-        <v>0.00311171733</v>
-      </c>
-      <c r="S23">
-        <v>2.039024686237138E-06</v>
-      </c>
-      <c r="T23">
-        <v>2.957268465609556E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.010485</v>
-      </c>
-      <c r="H24">
-        <v>0.031455</v>
-      </c>
-      <c r="I24">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J24">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.044061</v>
-      </c>
-      <c r="N24">
-        <v>0.08812200000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.0004374634602152387</v>
-      </c>
-      <c r="P24">
-        <v>0.0003706350854606983</v>
-      </c>
-      <c r="Q24">
-        <v>0.0004619795850000001</v>
-      </c>
-      <c r="R24">
-        <v>0.00277187751</v>
-      </c>
-      <c r="S24">
-        <v>2.724505186714146E-06</v>
-      </c>
-      <c r="T24">
-        <v>2.634296461258368E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.010485</v>
-      </c>
-      <c r="H25">
-        <v>0.031455</v>
-      </c>
-      <c r="I25">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J25">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.25707166666667</v>
-      </c>
-      <c r="N25">
-        <v>108.771215</v>
-      </c>
-      <c r="O25">
-        <v>0.3599814808690655</v>
-      </c>
-      <c r="P25">
-        <v>0.4574842668934997</v>
-      </c>
-      <c r="Q25">
-        <v>0.3801553964250001</v>
-      </c>
-      <c r="R25">
-        <v>3.421398567825</v>
-      </c>
-      <c r="S25">
-        <v>0.002241950473454979</v>
-      </c>
-      <c r="T25">
-        <v>0.003251578797136618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.010485</v>
-      </c>
-      <c r="H26">
-        <v>0.031455</v>
-      </c>
-      <c r="I26">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J26">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03088066666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.092642</v>
-      </c>
-      <c r="O26">
-        <v>0.0003066013774937787</v>
-      </c>
-      <c r="P26">
-        <v>0.0003896458953184223</v>
-      </c>
-      <c r="Q26">
-        <v>0.0003237837900000001</v>
-      </c>
-      <c r="R26">
-        <v>0.002914054110000001</v>
-      </c>
-      <c r="S26">
-        <v>1.909501293718345E-06</v>
-      </c>
-      <c r="T26">
-        <v>2.769416181701479E-06</v>
+        <v>7.862439169401747E-06</v>
       </c>
     </row>
   </sheetData>
